--- a/forms/材料報批表.xlsx
+++ b/forms/材料報批表.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kirei\Downloads\material_submission_form\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kirei\Downloads\material_submission_form\forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{519A353F-7AC8-4B87-9D08-8D4039F7CF71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F831C335-96D6-4150-8AD9-7F8114360D30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A971470B-42D5-4370-95E6-E6E2FD38F8BC}"/>
   </bookViews>
@@ -513,60 +513,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>357737</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>200901</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="圖片 1" descr="IAM_logo_A4_B&amp;W_500x176">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9F8C07A-4300-4BAB-BF9A-2448357830B8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="133350" y="152400"/>
-          <a:ext cx="1472162" cy="581901"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1491,6 +1437,5 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.27559055118110237" top="0.27559055118110237" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>